--- a/data/trans_orig/P16A17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Habitat-trans_orig.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2007 (tasa de respuesta: 99,97%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2007 (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1113,7 +1113,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2012 (tasa de respuesta: 99,21%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2012 (tasa de respuesta: 99,21%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1686,7 +1686,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2259,7 +2259,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2023 (tasa de respuesta: 99,89%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2023 (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Habitat-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>4510</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>984</v>
+        <v>1709</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9928</v>
+        <v>10542</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006551575277110341</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001430160201088579</v>
+        <v>0.002483043870565282</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01442283162206881</v>
+        <v>0.01531509644540541</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>683841</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>678423</v>
+        <v>677809</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>687367</v>
+        <v>686642</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9934484247228896</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9855771683779312</v>
+        <v>0.9846849035545949</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9985698397989115</v>
+        <v>0.9975169561294348</v>
       </c>
     </row>
     <row r="6">
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7355</v>
+        <v>8002</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00216301581149247</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007609631268060359</v>
+        <v>0.008279423989096955</v>
       </c>
     </row>
     <row r="8">
@@ -744,7 +744,7 @@
         <v>964444</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>959180</v>
+        <v>958533</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>966535</v>
@@ -753,7 +753,7 @@
         <v>0.9978369841885075</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.99239036873194</v>
+        <v>0.9917205760109028</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -806,19 +806,19 @@
         <v>8814</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4020</v>
+        <v>3916</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16062</v>
+        <v>15479</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01288934987229147</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005878631311651675</v>
+        <v>0.005725821718766202</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02348800045732117</v>
+        <v>0.02263547550839982</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>675027</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>667779</v>
+        <v>668362</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>679821</v>
+        <v>679925</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9871106501277085</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9765119995426798</v>
+        <v>0.9773645244915999</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9941213686883484</v>
+        <v>0.9942741782812338</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>8674</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3658</v>
+        <v>4002</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16307</v>
+        <v>16718</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008351302292687445</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003522321802590572</v>
+        <v>0.003853313887494302</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0157007009886834</v>
+        <v>0.0160964788840606</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>1029938</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1022305</v>
+        <v>1021894</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1034954</v>
+        <v>1034610</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9916486977073126</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9842992990113163</v>
+        <v>0.9839035211159394</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9964776781974093</v>
+        <v>0.9961466861125058</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>24088</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16076</v>
+        <v>15744</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35122</v>
+        <v>34576</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00713237311627108</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004759827443151944</v>
+        <v>0.004661606530646006</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01039927954728383</v>
+        <v>0.01023752702259107</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>3353251</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3342217</v>
+        <v>3342763</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3361263</v>
+        <v>3361595</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9928676268837289</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9896007204527161</v>
+        <v>0.9897624729774087</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9952401725568478</v>
+        <v>0.9953383934693538</v>
       </c>
     </row>
     <row r="18">
@@ -1197,19 +1197,19 @@
         <v>3024</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8689</v>
+        <v>8130</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004374737234849817</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001368363964612368</v>
+        <v>0.001366258235967956</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01256835421202622</v>
+        <v>0.01175970725638942</v>
       </c>
     </row>
     <row r="5">
@@ -1226,19 +1226,19 @@
         <v>688289</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>682624</v>
+        <v>683183</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>690367</v>
+        <v>690368</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9956252627651502</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9874316457879739</v>
+        <v>0.9882402927436106</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9986316360353876</v>
+        <v>0.9986337417640321</v>
       </c>
     </row>
     <row r="6">
@@ -1288,19 +1288,19 @@
         <v>5727</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2174</v>
+        <v>2236</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12593</v>
+        <v>12708</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005578325665172092</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002117334753927644</v>
+        <v>0.002178133149065094</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01226477185725376</v>
+        <v>0.01237729338008152</v>
       </c>
     </row>
     <row r="8">
@@ -1317,19 +1317,19 @@
         <v>1021014</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1014148</v>
+        <v>1014033</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1024567</v>
+        <v>1024505</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9944216743348279</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9877352281427463</v>
+        <v>0.9876227066199185</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9978826652460724</v>
+        <v>0.9978218668509349</v>
       </c>
     </row>
     <row r="9">
@@ -1379,19 +1379,19 @@
         <v>5892</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1942</v>
+        <v>1932</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15122</v>
+        <v>14559</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007609734020156651</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002507778394982929</v>
+        <v>0.002494572427340696</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01953014076606065</v>
+        <v>0.01880277997501515</v>
       </c>
     </row>
     <row r="11">
@@ -1408,19 +1408,19 @@
         <v>768398</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>759168</v>
+        <v>759731</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>772348</v>
+        <v>772358</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9923902659798434</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.980469859233939</v>
+        <v>0.9811972200249849</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.997492221605017</v>
+        <v>0.9975054275726594</v>
       </c>
     </row>
     <row r="12">
@@ -1470,19 +1470,19 @@
         <v>7046</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2911</v>
+        <v>3092</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13399</v>
+        <v>14219</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006752037059228477</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002789798837294667</v>
+        <v>0.002962724285340173</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01283920306134864</v>
+        <v>0.01362524279799153</v>
       </c>
     </row>
     <row r="14">
@@ -1499,19 +1499,19 @@
         <v>1036545</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1030192</v>
+        <v>1029372</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1040680</v>
+        <v>1040499</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9932479629407716</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9871607969386514</v>
+        <v>0.9863747572020086</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9972102011627053</v>
+        <v>0.9970372757146598</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>21690</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13520</v>
+        <v>13543</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33865</v>
+        <v>34745</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006134251475637478</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003823710410201663</v>
+        <v>0.003830045090362292</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.009577382402697163</v>
+        <v>0.009826329673771079</v>
       </c>
     </row>
     <row r="17">
@@ -1590,19 +1590,19 @@
         <v>3514246</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3502071</v>
+        <v>3501191</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3522416</v>
+        <v>3522393</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9938657485243625</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9904226175973027</v>
+        <v>0.9901736703262288</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9961762895897983</v>
+        <v>0.9961699549096376</v>
       </c>
     </row>
     <row r="18">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5662</v>
+        <v>5998</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001398215329577565</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008414457220196096</v>
+        <v>0.008914376099933509</v>
       </c>
     </row>
     <row r="5">
@@ -1799,7 +1799,7 @@
         <v>671898</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>667177</v>
+        <v>666841</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>672839</v>
@@ -1808,7 +1808,7 @@
         <v>0.9986017846704225</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9915855427798039</v>
+        <v>0.9910856239000672</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -1861,19 +1861,19 @@
         <v>6290</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2179</v>
+        <v>2360</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13439</v>
+        <v>13253</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006031271209759546</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002089447151356169</v>
+        <v>0.002263352855786491</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01288573666393267</v>
+        <v>0.01270727345283145</v>
       </c>
     </row>
     <row r="8">
@@ -1890,19 +1890,19 @@
         <v>1036623</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1029474</v>
+        <v>1029660</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1040734</v>
+        <v>1040553</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9939687287902405</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9871142633360671</v>
+        <v>0.9872927265471685</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9979105528486437</v>
+        <v>0.9977366471442134</v>
       </c>
     </row>
     <row r="9">
@@ -1952,19 +1952,19 @@
         <v>5405</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2135</v>
+        <v>2109</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11881</v>
+        <v>11960</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006885631884799087</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002720018185070576</v>
+        <v>0.002687107219631969</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01513450356733648</v>
+        <v>0.01523605913628085</v>
       </c>
     </row>
     <row r="11">
@@ -1981,19 +1981,19 @@
         <v>779606</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>773130</v>
+        <v>773051</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>782876</v>
+        <v>782902</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9931143681152009</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9848654964326634</v>
+        <v>0.9847639408637191</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9972799818149294</v>
+        <v>0.9973128927803681</v>
       </c>
     </row>
     <row r="12">
@@ -2043,19 +2043,19 @@
         <v>5452</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2042</v>
+        <v>2055</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12952</v>
+        <v>12777</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00522325464173001</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001955878192147843</v>
+        <v>0.001968613852167033</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01240862870580625</v>
+        <v>0.01224151265239629</v>
       </c>
     </row>
     <row r="14">
@@ -2072,19 +2072,19 @@
         <v>1038327</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1030827</v>
+        <v>1031002</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1041737</v>
+        <v>1041724</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.99477674535827</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9875913712941935</v>
+        <v>0.9877584873476034</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9980441218078522</v>
+        <v>0.998031386147833</v>
       </c>
     </row>
     <row r="15">
@@ -2134,19 +2134,19 @@
         <v>18088</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11189</v>
+        <v>11466</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28685</v>
+        <v>28688</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005103081089591228</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003156631739726414</v>
+        <v>0.003234752368892207</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008092683746887307</v>
+        <v>0.008093564605366345</v>
       </c>
     </row>
     <row r="17">
@@ -2163,19 +2163,19 @@
         <v>3526454</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3515857</v>
+        <v>3515854</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3533353</v>
+        <v>3533076</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9948969189104088</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.991907316253112</v>
+        <v>0.9919064353946335</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9968433682602735</v>
+        <v>0.9967652476311077</v>
       </c>
     </row>
     <row r="18">
@@ -2343,19 +2343,19 @@
         <v>2155</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6690</v>
+        <v>7099</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00293906758949044</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0006518346805734272</v>
+        <v>0.0006558708710392323</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009125261895676801</v>
+        <v>0.009683216150508284</v>
       </c>
     </row>
     <row r="5">
@@ -2372,19 +2372,19 @@
         <v>730958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>726423</v>
+        <v>726014</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>732635</v>
+        <v>732632</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9970609324105094</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9908747381043229</v>
+        <v>0.9903167838494915</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9993481653194265</v>
+        <v>0.9993441291289609</v>
       </c>
     </row>
     <row r="6">
@@ -2434,19 +2434,19 @@
         <v>3688</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1389</v>
+        <v>1337</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7839</v>
+        <v>7532</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003449831282102568</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001299411657894364</v>
+        <v>0.001250228904632619</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007332342342091762</v>
+        <v>0.007045281269381632</v>
       </c>
     </row>
     <row r="8">
@@ -2463,19 +2463,19 @@
         <v>1065366</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1061215</v>
+        <v>1061522</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1067665</v>
+        <v>1067717</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9965501687178975</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9926676576579083</v>
+        <v>0.9929547187306184</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9987005883421057</v>
+        <v>0.9987497710953673</v>
       </c>
     </row>
     <row r="9">
@@ -2525,19 +2525,19 @@
         <v>4406</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1564</v>
+        <v>1626</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9365</v>
+        <v>9545</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00543343099967196</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001928124463513376</v>
+        <v>0.002004897302583045</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01154856203221504</v>
+        <v>0.0117708600355013</v>
       </c>
     </row>
     <row r="11">
@@ -2554,19 +2554,19 @@
         <v>806536</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>801577</v>
+        <v>801397</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>809378</v>
+        <v>809316</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9945665690003281</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.988451437967785</v>
+        <v>0.9882291399644983</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9980718755364867</v>
+        <v>0.9979951026974169</v>
       </c>
     </row>
     <row r="12">
@@ -2616,19 +2616,19 @@
         <v>7988</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4360</v>
+        <v>3978</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13866</v>
+        <v>13409</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00716446741803213</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00391085529618617</v>
+        <v>0.003567662658823336</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01243689792221966</v>
+        <v>0.01202716941120574</v>
       </c>
     </row>
     <row r="14">
@@ -2645,19 +2645,19 @@
         <v>1106896</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1101018</v>
+        <v>1101475</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1110524</v>
+        <v>1110906</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.992835532581968</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9875631020777804</v>
+        <v>0.9879728305887943</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9960891447038139</v>
+        <v>0.9964323373411768</v>
       </c>
     </row>
     <row r="15">
@@ -2707,19 +2707,19 @@
         <v>18236</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11918</v>
+        <v>12378</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25928</v>
+        <v>26706</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.004891766763541077</v>
+        <v>0.004891766763541078</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003196981177204124</v>
+        <v>0.003320410546481231</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.006954841523604654</v>
+        <v>0.007163629539770858</v>
       </c>
     </row>
     <row r="17">
@@ -2736,19 +2736,19 @@
         <v>3709758</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3702066</v>
+        <v>3701288</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3716076</v>
+        <v>3715616</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.995108233236459</v>
+        <v>0.9951082332364589</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9930451584763953</v>
+        <v>0.9928363704602292</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9968030188227959</v>
+        <v>0.9966795894535189</v>
       </c>
     </row>
     <row r="18">
